--- a/Final-student-file.xlsx
+++ b/Final-student-file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7F30B-1E5D-D74C-AD7D-E14A28774EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488CFECA-6498-3744-BBFE-49D9837FC30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1144">
   <si>
     <t xml:space="preserve">AARAV ARORA </t>
   </si>
@@ -3240,9 +3240,6 @@
   </si>
   <si>
     <t xml:space="preserve">JESSIE JOY KIRABO NAKINTU </t>
-  </si>
-  <si>
-    <t>100400558</t>
   </si>
   <si>
     <t>&lt;)yOPFva</t>
@@ -3875,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B176" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L451" sqref="L451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3895,22 +3892,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12758,8 +12755,8 @@
       <c r="B432" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="C432" s="7" t="s">
-        <v>1074</v>
+      <c r="C432" s="7">
+        <v>100400558</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>1041</v>
@@ -12771,7 +12768,7 @@
         <v>22</v>
       </c>
       <c r="G432" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="433" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12779,10 +12776,10 @@
         <v>13</v>
       </c>
       <c r="B433" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C433" s="7" t="s">
         <v>1076</v>
-      </c>
-      <c r="C433" s="7" t="s">
-        <v>1077</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>1041</v>
@@ -12794,7 +12791,7 @@
         <v>4</v>
       </c>
       <c r="G433" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="434" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12802,10 +12799,10 @@
         <v>14</v>
       </c>
       <c r="B434" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C434" s="7" t="s">
         <v>1079</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>1080</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>1041</v>
@@ -12817,7 +12814,7 @@
         <v>38</v>
       </c>
       <c r="G434" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="435" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12825,10 +12822,10 @@
         <v>15</v>
       </c>
       <c r="B435" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C435" s="7" t="s">
         <v>1082</v>
-      </c>
-      <c r="C435" s="7" t="s">
-        <v>1083</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>1041</v>
@@ -12840,7 +12837,7 @@
         <v>22</v>
       </c>
       <c r="G435" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="436" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12848,10 +12845,10 @@
         <v>16</v>
       </c>
       <c r="B436" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C436" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>1086</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>1041</v>
@@ -12863,7 +12860,7 @@
         <v>38</v>
       </c>
       <c r="G436" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="437" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12871,10 +12868,10 @@
         <v>17</v>
       </c>
       <c r="B437" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C437" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="C437" s="7" t="s">
-        <v>1089</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>1041</v>
@@ -12886,7 +12883,7 @@
         <v>4</v>
       </c>
       <c r="G437" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="438" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12894,10 +12891,10 @@
         <v>18</v>
       </c>
       <c r="B438" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C438" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>1092</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>1041</v>
@@ -12909,7 +12906,7 @@
         <v>8</v>
       </c>
       <c r="G438" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="439" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12917,10 +12914,10 @@
         <v>19</v>
       </c>
       <c r="B439" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C439" s="7" t="s">
         <v>1094</v>
-      </c>
-      <c r="C439" s="7" t="s">
-        <v>1095</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>1041</v>
@@ -12932,7 +12929,7 @@
         <v>38</v>
       </c>
       <c r="G439" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="440" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12940,10 +12937,10 @@
         <v>20</v>
       </c>
       <c r="B440" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C440" s="7" t="s">
         <v>1097</v>
-      </c>
-      <c r="C440" s="7" t="s">
-        <v>1098</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>1041</v>
@@ -12955,7 +12952,7 @@
         <v>22</v>
       </c>
       <c r="G440" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="441" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12963,10 +12960,10 @@
         <v>21</v>
       </c>
       <c r="B441" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C441" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="C441" s="7" t="s">
-        <v>1101</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>1041</v>
@@ -12978,7 +12975,7 @@
         <v>22</v>
       </c>
       <c r="G441" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="442" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12986,10 +12983,10 @@
         <v>22</v>
       </c>
       <c r="B442" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C442" s="7" t="s">
         <v>1103</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>1104</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>1041</v>
@@ -13001,7 +12998,7 @@
         <v>22</v>
       </c>
       <c r="G442" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,10 +13006,10 @@
         <v>23</v>
       </c>
       <c r="B443" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C443" s="7" t="s">
         <v>1106</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>1107</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>1041</v>
@@ -13024,7 +13021,7 @@
         <v>38</v>
       </c>
       <c r="G443" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="444" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13032,10 +13029,10 @@
         <v>24</v>
       </c>
       <c r="B444" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C444" s="7" t="s">
         <v>1109</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>1110</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>1041</v>
@@ -13047,7 +13044,7 @@
         <v>4</v>
       </c>
       <c r="G444" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="445" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13055,10 +13052,10 @@
         <v>25</v>
       </c>
       <c r="B445" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C445" s="7" t="s">
         <v>1112</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>1113</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>1041</v>
@@ -13070,7 +13067,7 @@
         <v>8</v>
       </c>
       <c r="G445" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="446" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13078,10 +13075,10 @@
         <v>26</v>
       </c>
       <c r="B446" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C446" s="7" t="s">
         <v>1115</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>1116</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>1041</v>
@@ -13093,7 +13090,7 @@
         <v>22</v>
       </c>
       <c r="G446" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="447" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13101,10 +13098,10 @@
         <v>27</v>
       </c>
       <c r="B447" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C447" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1119</v>
       </c>
       <c r="D447" s="7" t="s">
         <v>1041</v>
@@ -13116,7 +13113,7 @@
         <v>22</v>
       </c>
       <c r="G447" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="448" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13124,10 +13121,10 @@
         <v>28</v>
       </c>
       <c r="B448" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C448" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="D448" s="7" t="s">
         <v>1041</v>
@@ -13139,7 +13136,7 @@
         <v>4</v>
       </c>
       <c r="G448" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="449" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13147,10 +13144,10 @@
         <v>29</v>
       </c>
       <c r="B449" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C449" s="7" t="s">
         <v>1124</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>1125</v>
       </c>
       <c r="D449" s="7" t="s">
         <v>1041</v>
@@ -13162,7 +13159,7 @@
         <v>4</v>
       </c>
       <c r="G449" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="450" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13170,10 +13167,10 @@
         <v>30</v>
       </c>
       <c r="B450" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C450" s="7" t="s">
         <v>1127</v>
-      </c>
-      <c r="C450" s="7" t="s">
-        <v>1128</v>
       </c>
       <c r="D450" s="7" t="s">
         <v>1041</v>
@@ -13185,7 +13182,7 @@
         <v>8</v>
       </c>
       <c r="G450" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="451" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13193,10 +13190,10 @@
         <v>31</v>
       </c>
       <c r="B451" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C451" s="7" t="s">
         <v>1130</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>1131</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>1041</v>
@@ -13208,7 +13205,7 @@
         <v>22</v>
       </c>
       <c r="G451" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="452" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13216,10 +13213,10 @@
         <v>32</v>
       </c>
       <c r="B452" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C452" s="7" t="s">
         <v>1133</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>1134</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>1041</v>
@@ -13231,7 +13228,7 @@
         <v>22</v>
       </c>
       <c r="G452" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="453" spans="1:7" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -13239,10 +13236,10 @@
         <v>33</v>
       </c>
       <c r="B453" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C453" s="7" t="s">
         <v>1136</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>1137</v>
       </c>
       <c r="D453" s="7" t="s">
         <v>1041</v>
@@ -13254,7 +13251,7 @@
         <v>8</v>
       </c>
       <c r="G453" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
